--- a/translations.xlsx
+++ b/translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
   <si>
     <t>field name</t>
   </si>
@@ -22,43 +22,328 @@
     <t>cy</t>
   </si>
   <si>
+    <t>common:navigation:signOut</t>
+  </si>
+  <si>
+    <t>navigation:signOut</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>common:navigation:switchOrganisation</t>
+  </si>
+  <si>
+    <t>navigation:switchOrganisation</t>
+  </si>
+  <si>
+    <t>common:navigation:yourSites</t>
+  </si>
+  <si>
+    <t>navigation:yourSites</t>
+  </si>
+  <si>
     <t>registration:packagingHeading</t>
   </si>
   <si>
     <t>Packaging waste records</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>registration:submitSummaryLog</t>
   </si>
   <si>
     <t>Submit summary log</t>
   </si>
   <si>
+    <t>summary-log-upload:accordionSection1Heading</t>
+  </si>
+  <si>
+    <t>You’ve completed section 1 for each load</t>
+  </si>
+  <si>
+    <t>summary-log-upload:accordionSection1Text</t>
+  </si>
+  <si>
+    <t>A load will only be added to your waste balance when you’ve provided all the information in this section.</t>
+  </si>
+  <si>
+    <t>summary-log-upload:accordionSection2Bullet1</t>
+  </si>
+  <si>
+    <t>you’re meeting your regulatory requirements</t>
+  </si>
+  <si>
+    <t>summary-log-upload:accordionSection2Bullet2</t>
+  </si>
+  <si>
+    <t>reports you submit to your regulator will be accurate</t>
+  </si>
+  <si>
+    <t>summary-log-upload:accordionSection2Heading</t>
+  </si>
+  <si>
+    <t>You’ve included all known information in sections 2, 3 and 4</t>
+  </si>
+  <si>
+    <t>summary-log-upload:accordionSection2Intro</t>
+  </si>
+  <si>
+    <t>By completing these sections you’re ensuring that:</t>
+  </si>
+  <si>
+    <t>summary-log-upload:accordionSection3Heading</t>
+  </si>
+  <si>
+    <t>You’ve adjusted any out-of-date information</t>
+  </si>
+  <si>
+    <t>summary-log-upload:accordionSection3Paragraph1</t>
+  </si>
+  <si>
+    <t>You should always submit the most up-to-date information you have, to ensure that your waste balance is accurate.</t>
+  </si>
+  <si>
+    <t>summary-log-upload:accordionSection3Paragraph2</t>
+  </si>
+  <si>
+    <t>Any adjustments for this reporting period will be reflected straight away in your waste balance.</t>
+  </si>
+  <si>
+    <t>summary-log-upload:accordionSection3Paragraph3</t>
+  </si>
+  <si>
+    <t>Any adjustments made to loads from previous reporting periods will need to be confirmed by an approved person at your company.</t>
+  </si>
+  <si>
+    <t>summary-log-upload:accordionSection4Heading</t>
+  </si>
+  <si>
+    <t>You’ve included any waste sent on in section 5, if applicable</t>
+  </si>
+  <si>
+    <t>summary-log-upload:accordionSection4Text</t>
+  </si>
+  <si>
+    <t>You only need to complete this section if packaging waste has been sent on. These loads will be removed from your waste balance when all the information is provided.</t>
+  </si>
+  <si>
+    <t>summary-log-upload:accordionWhyNeeded</t>
+  </si>
+  <si>
+    <t>Why this is needed</t>
+  </si>
+  <si>
+    <t>summary-log-upload:checkStepsIntro1</t>
+  </si>
+  <si>
+    <t>Check you’ve completed the following steps before uploading your summary log.</t>
+  </si>
+  <si>
+    <t>summary-log-upload:checkStepsIntro2</t>
+  </si>
+  <si>
+    <t>This will ensure that your waste balance is correct and you’re meeting regulatory requirements.</t>
+  </si>
+  <si>
+    <t>summary-log-upload:continueButton</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>summary-log-upload:errorGeneric</t>
+  </si>
+  <si>
+    <t>Failed to initialize upload</t>
+  </si>
+  <si>
+    <t>summary-log-upload:errorHeading</t>
+  </si>
+  <si>
+    <t>Summary log upload error</t>
+  </si>
+  <si>
+    <t>summary-log-upload:errorPageTitle</t>
+  </si>
+  <si>
+    <t>Summary log: upload error</t>
+  </si>
+  <si>
+    <t>summary-log-upload:fileUploadLabel</t>
+  </si>
+  <si>
+    <t>Upload XLSX file</t>
+  </si>
+  <si>
+    <t>summary-log-upload:heading</t>
+  </si>
+  <si>
+    <t>Upload your summary log</t>
+  </si>
+  <si>
+    <t>summary-log-upload:insetText</t>
+  </si>
+  <si>
+    <t>You can submit an updated summary log whenever you need to add or adjust your waste records.</t>
+  </si>
+  <si>
+    <t>summary-log-upload:pageTitle</t>
+  </si>
+  <si>
+    <t>Summary log: upload</t>
+  </si>
+  <si>
+    <t>summary-log-upload:siteName</t>
+  </si>
+  <si>
+    <t>Test site</t>
+  </si>
+  <si>
+    <t>summary-log:checkHeading</t>
+  </si>
+  <si>
+    <t>Check before you submit</t>
+  </si>
+  <si>
+    <t>summary-log:checkIntro</t>
+  </si>
+  <si>
+    <t>Your summary log has been validated and is ready to submit.</t>
+  </si>
+  <si>
+    <t>summary-log:checkPageTitle</t>
+  </si>
+  <si>
+    <t>Summary log</t>
+  </si>
+  <si>
+    <t>summary-log:complianceBody</t>
+  </si>
+  <si>
+    <t>By submitting this summary log, you are declaring that you have complied with the requirements of your environmental permit during the reporting period.</t>
+  </si>
+  <si>
+    <t>summary-log:complianceHeading</t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>summary-log:complianceSubheading</t>
+  </si>
+  <si>
+    <t>You must comply with your waste permit</t>
+  </si>
+  <si>
+    <t>summary-log:confirmButton</t>
+  </si>
+  <si>
+    <t>Confirm and submit</t>
+  </si>
+  <si>
+    <t>summary-log:declarationBullet1</t>
+  </si>
+  <si>
+    <t>the information provided is complete and accurate</t>
+  </si>
+  <si>
+    <t>summary-log:declarationBullet2</t>
+  </si>
+  <si>
+    <t>you have the authority to submit this information on behalf of your organisation</t>
+  </si>
+  <si>
+    <t>summary-log:declarationHeading</t>
+  </si>
+  <si>
+    <t>Declaration</t>
+  </si>
+  <si>
+    <t>summary-log:declarationIntro</t>
+  </si>
+  <si>
+    <t>By submitting this summary log, you confirm that:</t>
+  </si>
+  <si>
+    <t>summary-log:errorHeading</t>
+  </si>
+  <si>
+    <t>Error checking status</t>
+  </si>
+  <si>
+    <t>summary-log:errorMessage</t>
+  </si>
+  <si>
+    <t>Unable to check upload status</t>
+  </si>
+  <si>
+    <t>summary-log:invalidFailureReasonExample</t>
+  </si>
+  <si>
+    <t>The waste registration number in your summary log does not match your registration</t>
+  </si>
+  <si>
+    <t>summary-log:invalidHeading</t>
+  </si>
+  <si>
+    <t>Validation failed</t>
+  </si>
+  <si>
+    <t>summary-log:invalidMessage</t>
+  </si>
+  <si>
+    <t>Please check your file and try again</t>
+  </si>
+  <si>
+    <t>summary-log:loadingKeepOpen</t>
+  </si>
+  <si>
+    <t>Keep this page open</t>
+  </si>
+  <si>
     <t>summary-log:pageTitle</t>
   </si>
   <si>
-    <t>Summary log</t>
-  </si>
-  <si>
     <t>summary-log:processingHeading</t>
   </si>
   <si>
     <t>Your file is being uploaded</t>
   </si>
   <si>
+    <t>summary-log:processingKeepOpen</t>
+  </si>
+  <si>
+    <t>Keep this page open and do not refresh it</t>
+  </si>
+  <si>
     <t>summary-log:processingMessage</t>
   </si>
   <si>
     <t>Your summary log is being uploaded and automatically validated</t>
   </si>
   <si>
-    <t>summary-log:processingKeepOpen</t>
-  </si>
-  <si>
-    <t>Keep this page open and do not refresh it</t>
+    <t>summary-log:rejectedDefaultReason</t>
+  </si>
+  <si>
+    <t>File rejected by virus scanner</t>
+  </si>
+  <si>
+    <t>summary-log:reuploadButton</t>
+  </si>
+  <si>
+    <t>Re-upload summary log</t>
+  </si>
+  <si>
+    <t>summary-log:submittedHeading</t>
+  </si>
+  <si>
+    <t>Submission complete</t>
+  </si>
+  <si>
+    <t>summary-log:submittedMessage</t>
+  </si>
+  <si>
+    <t>Your waste records have been updated</t>
   </si>
   <si>
     <t>summary-log:validatedHeading</t>
@@ -71,273 +356,6 @@
   </si>
   <si>
     <t>Your file is ready to submit</t>
-  </si>
-  <si>
-    <t>summary-log:submittedHeading</t>
-  </si>
-  <si>
-    <t>Submission complete</t>
-  </si>
-  <si>
-    <t>summary-log:submittedMessage</t>
-  </si>
-  <si>
-    <t>Your waste records have been updated</t>
-  </si>
-  <si>
-    <t>summary-log:invalidHeading</t>
-  </si>
-  <si>
-    <t>Validation failed</t>
-  </si>
-  <si>
-    <t>summary-log:invalidMessage</t>
-  </si>
-  <si>
-    <t>Please check your file and try again</t>
-  </si>
-  <si>
-    <t>summary-log:invalidFailureReasonExample</t>
-  </si>
-  <si>
-    <t>The waste registration number in your summary log does not match your registration</t>
-  </si>
-  <si>
-    <t>summary-log:rejectedDefaultReason</t>
-  </si>
-  <si>
-    <t>File rejected by virus scanner</t>
-  </si>
-  <si>
-    <t>summary-log:errorHeading</t>
-  </si>
-  <si>
-    <t>Error checking status</t>
-  </si>
-  <si>
-    <t>summary-log:errorMessage</t>
-  </si>
-  <si>
-    <t>Unable to check upload status</t>
-  </si>
-  <si>
-    <t>summary-log:loadingKeepOpen</t>
-  </si>
-  <si>
-    <t>Keep this page open</t>
-  </si>
-  <si>
-    <t>summary-log:checkPageTitle</t>
-  </si>
-  <si>
-    <t>summary-log:checkHeading</t>
-  </si>
-  <si>
-    <t>Check before you submit</t>
-  </si>
-  <si>
-    <t>summary-log:checkIntro</t>
-  </si>
-  <si>
-    <t>Your summary log has been validated and is ready to submit.</t>
-  </si>
-  <si>
-    <t>summary-log:complianceHeading</t>
-  </si>
-  <si>
-    <t>Compliance</t>
-  </si>
-  <si>
-    <t>summary-log:complianceSubheading</t>
-  </si>
-  <si>
-    <t>You must comply with your waste permit</t>
-  </si>
-  <si>
-    <t>summary-log:complianceBody</t>
-  </si>
-  <si>
-    <t>By submitting this summary log, you are declaring that you have complied with the requirements of your environmental permit during the reporting period.</t>
-  </si>
-  <si>
-    <t>summary-log:declarationHeading</t>
-  </si>
-  <si>
-    <t>Declaration</t>
-  </si>
-  <si>
-    <t>summary-log:declarationIntro</t>
-  </si>
-  <si>
-    <t>By submitting this summary log, you confirm that:</t>
-  </si>
-  <si>
-    <t>summary-log:declarationBullet1</t>
-  </si>
-  <si>
-    <t>the information provided is complete and accurate</t>
-  </si>
-  <si>
-    <t>summary-log:declarationBullet2</t>
-  </si>
-  <si>
-    <t>you have the authority to submit this information on behalf of your organisation</t>
-  </si>
-  <si>
-    <t>summary-log:confirmButton</t>
-  </si>
-  <si>
-    <t>Confirm and submit</t>
-  </si>
-  <si>
-    <t>summary-log:reuploadButton</t>
-  </si>
-  <si>
-    <t>Re-upload summary log</t>
-  </si>
-  <si>
-    <t>summary-log-upload:pageTitle</t>
-  </si>
-  <si>
-    <t>Summary log: upload</t>
-  </si>
-  <si>
-    <t>summary-log-upload:heading</t>
-  </si>
-  <si>
-    <t>Upload your summary log</t>
-  </si>
-  <si>
-    <t>summary-log-upload:siteName</t>
-  </si>
-  <si>
-    <t>Test site</t>
-  </si>
-  <si>
-    <t>summary-log-upload:checkStepsIntro1</t>
-  </si>
-  <si>
-    <t>Check you’ve completed the following steps before uploading your summary log.</t>
-  </si>
-  <si>
-    <t>summary-log-upload:checkStepsIntro2</t>
-  </si>
-  <si>
-    <t>This will ensure that your waste balance is correct and you’re meeting regulatory requirements.</t>
-  </si>
-  <si>
-    <t>summary-log-upload:accordionWhyNeeded</t>
-  </si>
-  <si>
-    <t>Why this is needed</t>
-  </si>
-  <si>
-    <t>summary-log-upload:accordionSection1Heading</t>
-  </si>
-  <si>
-    <t>You’ve completed section 1 for each load</t>
-  </si>
-  <si>
-    <t>summary-log-upload:accordionSection1Text</t>
-  </si>
-  <si>
-    <t>A load will only be added to your waste balance when you’ve provided all the information in this section.</t>
-  </si>
-  <si>
-    <t>summary-log-upload:accordionSection2Heading</t>
-  </si>
-  <si>
-    <t>You’ve included all known information in sections 2, 3 and 4</t>
-  </si>
-  <si>
-    <t>summary-log-upload:accordionSection2Intro</t>
-  </si>
-  <si>
-    <t>By completing these sections you’re ensuring that:</t>
-  </si>
-  <si>
-    <t>summary-log-upload:accordionSection2Bullet1</t>
-  </si>
-  <si>
-    <t>you’re meeting your regulatory requirements</t>
-  </si>
-  <si>
-    <t>summary-log-upload:accordionSection2Bullet2</t>
-  </si>
-  <si>
-    <t>reports you submit to your regulator will be accurate</t>
-  </si>
-  <si>
-    <t>summary-log-upload:accordionSection3Heading</t>
-  </si>
-  <si>
-    <t>You’ve adjusted any out-of-date information</t>
-  </si>
-  <si>
-    <t>summary-log-upload:accordionSection3Paragraph1</t>
-  </si>
-  <si>
-    <t>You should always submit the most up-to-date information you have, to ensure that your waste balance is accurate.</t>
-  </si>
-  <si>
-    <t>summary-log-upload:accordionSection3Paragraph2</t>
-  </si>
-  <si>
-    <t>Any adjustments for this reporting period will be reflected straight away in your waste balance.</t>
-  </si>
-  <si>
-    <t>summary-log-upload:accordionSection3Paragraph3</t>
-  </si>
-  <si>
-    <t>Any adjustments made to loads from previous reporting periods will need to be confirmed by an approved person at your company.</t>
-  </si>
-  <si>
-    <t>summary-log-upload:accordionSection4Heading</t>
-  </si>
-  <si>
-    <t>You’ve included any waste sent on in section 5, if applicable</t>
-  </si>
-  <si>
-    <t>summary-log-upload:accordionSection4Text</t>
-  </si>
-  <si>
-    <t>You only need to complete this section if packaging waste has been sent on. These loads will be removed from your waste balance when all the information is provided.</t>
-  </si>
-  <si>
-    <t>summary-log-upload:insetText</t>
-  </si>
-  <si>
-    <t>You can submit an updated summary log whenever you need to add or adjust your waste records.</t>
-  </si>
-  <si>
-    <t>summary-log-upload:fileUploadLabel</t>
-  </si>
-  <si>
-    <t>Upload XLSX file</t>
-  </si>
-  <si>
-    <t>summary-log-upload:continueButton</t>
-  </si>
-  <si>
-    <t>Continue</t>
-  </si>
-  <si>
-    <t>summary-log-upload:errorPageTitle</t>
-  </si>
-  <si>
-    <t>Summary log: upload error</t>
-  </si>
-  <si>
-    <t>summary-log-upload:errorHeading</t>
-  </si>
-  <si>
-    <t>Summary log upload error</t>
-  </si>
-  <si>
-    <t>summary-log-upload:errorGeneric</t>
-  </si>
-  <si>
-    <t>Failed to initialize upload</t>
   </si>
 </sst>
 </file>
@@ -365,7 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
+        <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -723,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C57"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="3" width="60" customWidth="1"/>
   </cols>
   <sheetData>
@@ -933,7 +951,7 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -941,10 +959,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -952,10 +970,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -963,10 +981,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -974,10 +992,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -985,10 +1003,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -996,10 +1014,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1007,10 +1025,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1018,10 +1036,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1029,10 +1047,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1040,10 +1058,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1051,10 +1069,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1062,10 +1080,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1073,10 +1091,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1084,10 +1102,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1095,10 +1113,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1106,10 +1124,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1117,10 +1135,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1128,10 +1146,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1139,10 +1157,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1150,10 +1168,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1161,10 +1179,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1172,10 +1190,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1183,10 +1201,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1194,10 +1212,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1205,10 +1223,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1216,10 +1234,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1227,10 +1245,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1238,10 +1256,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1249,10 +1267,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1324,8 +1342,40 @@
         <v>5</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
